--- a/input-data/contractions.xlsx
+++ b/input-data/contractions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Timm/Documents/Humboldt/Masterarbeit/Sentiment-Repository/input-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C0AE80-A5CD-1B47-B5D4-BABB5F9EE509}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E7A40A-86C2-1E47-A7E9-A163BA6A01CA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="440" windowWidth="26260" windowHeight="16500" xr2:uid="{366BF00F-35FE-DB4B-AD0B-9E6A96050AC1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t>contraction</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>reccomend</t>
+  </si>
+  <si>
+    <t>noise cancellation</t>
+  </si>
+  <si>
+    <t>noise cancel</t>
   </si>
 </sst>
 </file>
@@ -607,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC06C48-0A4E-9544-BCB6-B05271346EFF}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="105" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -952,6 +958,14 @@
         <v>75</v>
       </c>
     </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:B24">
     <sortCondition ref="A1"/>

--- a/input-data/contractions.xlsx
+++ b/input-data/contractions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Timm/Documents/Humboldt/Masterarbeit/Sentiment-Repository/input-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E7A40A-86C2-1E47-A7E9-A163BA6A01CA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743F4104-B2B8-3D43-AF90-647948C395CE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="440" windowWidth="26260" windowHeight="16500" xr2:uid="{366BF00F-35FE-DB4B-AD0B-9E6A96050AC1}"/>
   </bookViews>
@@ -84,9 +84,6 @@
     <t>need not</t>
   </si>
   <si>
-    <t>should have not</t>
-  </si>
-  <si>
     <t>should not</t>
   </si>
   <si>
@@ -262,6 +259,9 @@
   </si>
   <si>
     <t>noise cancel</t>
+  </si>
+  <si>
+    <t>should have</t>
   </si>
 </sst>
 </file>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC06C48-0A4E-9544-BCB6-B05271346EFF}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="105" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="105" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,7 +635,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -747,15 +747,15 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
         <v>61</v>
-      </c>
-      <c r="B16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -787,183 +787,183 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
         <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
         <v>63</v>
-      </c>
-      <c r="B33" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
         <v>69</v>
-      </c>
-      <c r="B38" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
         <v>71</v>
-      </c>
-      <c r="B39" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" t="s">
         <v>74</v>
-      </c>
-      <c r="B42" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
         <v>77</v>
-      </c>
-      <c r="B43" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
